--- a/room_attribution/resultats/demi_journee_0/planning_presentateurs.xlsx
+++ b/room_attribution/resultats/demi_journee_0/planning_presentateurs.xlsx
@@ -461,27 +461,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>J020 (35 él.)</t>
+          <t>A115 (21 él.)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A012 (38 él.)</t>
+          <t>A116 (48 él.)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A013 (50 él.)</t>
+          <t>A115 (45 él.)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A115 (40 él.)</t>
+          <t>A013 (49 él.)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>I013 (27 él.)</t>
+          <t>A116 (27 él.)</t>
         </is>
       </c>
     </row>
@@ -493,27 +493,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>J106 (25 él.)</t>
+          <t>J021 (39 él.)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>J110 (43 él.)</t>
+          <t>J012 (24 él.)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A116 (48 él.)</t>
+          <t>J109 (38 él.)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A116 (43 él.)</t>
+          <t>J109 (38 él.)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>J021 (42 él.)</t>
+          <t>J021 (63 él.)</t>
         </is>
       </c>
     </row>
@@ -525,27 +525,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>A017 (9 él.)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>J204 (36 él.)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>J022 (110 él.)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>J009 (19 él.)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>J020 (109 él.)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>J108 (37 él.)</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A116 (25 él.)</t>
+          <t>J008 (16 él.)</t>
         </is>
       </c>
     </row>
@@ -557,12 +557,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>J110 (21 él.)</t>
+          <t>J108 (13 él.)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>J020 (114 él.)</t>
+          <t>J022 (113 él.)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -572,12 +572,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>J007 (15 él.)</t>
+          <t>A016 (34 él.)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>J109 (22 él.)</t>
+          <t>A016 (12 él.)</t>
         </is>
       </c>
     </row>
@@ -589,27 +589,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A017 (18 él.)</t>
+          <t>J109 (20 él.)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>J107 (19 él.)</t>
+          <t>J008 (19 él.)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>J021 (125 él.)</t>
+          <t>J021 (119 él.)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>J008 (18 él.)</t>
+          <t>J008 (19 él.)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>J106 (18 él.)</t>
+          <t>J106 (21 él.)</t>
         </is>
       </c>
     </row>
@@ -621,27 +621,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>J204 (36 él.)</t>
+          <t>J106 (33 él.)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A017 (43 él.)</t>
+          <t>A101 (31 él.)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>J204 (33 él.)</t>
+          <t>J108 (38 él.)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A012 (38 él.)</t>
+          <t>J110 (43 él.)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>D03 (34 él.)</t>
+          <t>J022 (40 él.)</t>
         </is>
       </c>
     </row>
@@ -653,27 +653,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>J021 (46 él.)</t>
+          <t>A116 (23 él.)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A116 (48 él.)</t>
+          <t>A115 (45 él.)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>J108 (37 él.)</t>
+          <t>I013 (60 él.)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>J204 (36 él.)</t>
+          <t>A017 (41 él.)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>J022 (24 él.)</t>
+          <t>J110 (23 él.)</t>
         </is>
       </c>
     </row>
@@ -690,17 +690,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>J008 (19 él.)</t>
+          <t>J107 (19 él.)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>J022 (120 él.)</t>
+          <t>J020 (103 él.)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>J021 (85 él.)</t>
+          <t>J020 (102 él.)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -717,12 +717,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>J108 (34 él.)</t>
+          <t>A013 (27 él.)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>J007 (16 él.)</t>
+          <t>A016 (38 él.)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -732,12 +732,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>I013 (60 él.)</t>
+          <t>A116 (48 él.)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>J020 (46 él.)</t>
+          <t>A013 (43 él.)</t>
         </is>
       </c>
     </row>
@@ -749,27 +749,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>J107 (19 él.)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A101 (24 él.)</t>
+          <t>J108 (38 él.)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>A016 (34 él.)</t>
+          <t>J204 (36 él.)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>J022 (135 él.)</t>
+          <t>D03 (73 él.)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>A013 (8 él.)</t>
+          <t>J204 (36 él.)</t>
         </is>
       </c>
     </row>
@@ -781,27 +781,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>A013 (44 él.)</t>
+          <t>J020 (56 él.)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A013 (50 él.)</t>
+          <t>A017 (43 él.)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>J109 (35 él.)</t>
+          <t>J110 (43 él.)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A017 (43 él.)</t>
+          <t>J204 (36 él.)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>A016 (34 él.)</t>
+          <t>J020 (28 él.)</t>
         </is>
       </c>
     </row>
@@ -813,27 +813,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A012 (38 él.)</t>
+          <t>I013 (36 él.)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>J106 (36 él.)</t>
+          <t>A013 (47 él.)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>I013 (55 él.)</t>
+          <t>A013 (50 él.)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A013 (50 él.)</t>
+          <t>A115 (44 él.)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>A101 (31 él.)</t>
+          <t>J109 (33 él.)</t>
         </is>
       </c>
     </row>
@@ -845,27 +845,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>J022 (10 él.)</t>
+          <t>J110 (19 él.)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>J022 (89 él.)</t>
+          <t>J021 (88 él.)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>J106 (31 él.)</t>
+          <t>A101 (31 él.)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>J110 (42 él.)</t>
+          <t>J108 (32 él.)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>J008 (11 él.)</t>
+          <t>A101 (13 él.)</t>
         </is>
       </c>
     </row>
@@ -877,22 +877,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>J012 (15 él.)</t>
+          <t>J007 (19 él.)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>D03 (96 él.)</t>
+          <t>D03 (84 él.)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>A012 (28 él.)</t>
+          <t>J008 (19 él.)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>J109 (38 él.)</t>
+          <t>I013 (55 él.)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>D03 (41 él.)</t>
+          <t>A016 (38 él.)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -919,17 +919,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>J110 (43 él.)</t>
+          <t>A017 (42 él.)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A016 (38 él.)</t>
+          <t>A012 (38 él.)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>A115 (28 él.)</t>
+          <t>I013 (32 él.)</t>
         </is>
       </c>
     </row>
@@ -941,27 +941,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>I013 (34 él.)</t>
+          <t>A012 (33 él.)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>J109 (35 él.)</t>
+          <t>J110 (43 él.)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>D03 (94 él.)</t>
+          <t>D03 (85 él.)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>J009 (9 él.)</t>
+          <t>J007 (19 él.)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>A017 (21 él.)</t>
+          <t>A017 (15 él.)</t>
         </is>
       </c>
     </row>
@@ -973,27 +973,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A016 (38 él.)</t>
+          <t>J008 (18 él.)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A115 (36 él.)</t>
+          <t>A012 (38 él.)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>A017 (43 él.)</t>
+          <t>A116 (46 él.)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>D03 (96 él.)</t>
+          <t>J021 (118 él.)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>J108 (18 él.)</t>
+          <t>J012 (11 él.)</t>
         </is>
       </c>
     </row>
@@ -1010,22 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>J021 (138 él.)</t>
+          <t>J020 (130 él.)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>J012 (24 él.)</t>
+          <t>J106 (36 él.)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>J107 (18 él.)</t>
+          <t>J106 (32 él.)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>J007 (16 él.)</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>J109 (23 él.)</t>
+          <t>J022 (28 él.)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1047,17 +1047,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>A115 (38 él.)</t>
+          <t>A012 (34 él.)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>J020 (132 él.)</t>
+          <t>J022 (139 él.)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>J107 (19 él.)</t>
+          <t>J007 (11 él.)</t>
         </is>
       </c>
     </row>
@@ -1069,12 +1069,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>J008 (7 él.)</t>
+          <t>A101 (26 él.)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>J108 (38 él.)</t>
+          <t>J009 (19 él.)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>A116 (9 él.)</t>
+          <t>J009 (12 él.)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>J012 (24 él.)</t>
+          <t>J007 (19 él.)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>J107 (2 él.)</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>J009 (7 él.)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>A101 (31 él.)</t>
+          <t>A016 (38 él.)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>J008 (17 él.)</t>
+          <t>J007 (17 él.)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>A101 (18 él.)</t>
+          <t>D03 (18 él.)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>J012 (14 él.)</t>
+          <t>D03 (14 él.)</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>J107 (15 él.)</t>
+          <t>J204 (15 él.)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>J204 (16 él.)</t>
+          <t>J009 (16 él.)</t>
         </is>
       </c>
     </row>
@@ -1271,12 +1271,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>J007 (19 él.)</t>
+          <t>J012 (24 él.)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A101 (25 él.)</t>
+          <t>J107 (19 él.)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>J007 (15 él.)</t>
+          <t>J012 (17 él.)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>J110 (26 él.)</t>
+          <t>J108 (26 él.)</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>A115 (10 él.)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>A012 (20 él.)</t>
+          <t>A115 (20 él.)</t>
         </is>
       </c>
     </row>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A016 (35 él.)</t>
+          <t>J109 (37 él.)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>J009 (13 él.)</t>
+          <t>A012 (11 él.)</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>J204 (32 él.)</t>
+          <t>J106 (33 él.)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>J106 (31 él.)</t>
+          <t>A101 (31 él.)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
